--- a/atomica/library/malaria_framework.xlsx
+++ b/atomica/library/malaria_framework.xlsx
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="1">
+    <comment ref="G8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -960,11 +960,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-This parameter determines the mosquito population size; and it should be the only parameter during calibration for the mosquito population</t>
+m_death is not a transition so the conversion of the duration to transition probability has to be done here</t>
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="1">
+    <comment ref="D26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -972,7 +972,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -981,14 +981,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-m_death is not a transition so the conversion of the duration to transition probability has to be done here</t>
+arbitrary value</t>
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="1">
+    <comment ref="B45" authorId="1">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -1005,38 +1005,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-arbitrary value</t>
+All these testing probabilities/proportions might be subsumed to "positive" and "false positive" test result. It depends if different types of tests (for vivax/falciparum) are considered. Same applies to the treatments</t>
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Chris Kuschel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-All these testing probabilities/proportions might be subsumed to "positive" and "false positive" test result. It depends if different types of tests (for vivax/falciparum) are considered. Same applies to the treatments</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G78" authorId="1">
+    <comment ref="G69" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1417,7 +1393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="305">
   <si>
     <t>Code Name</t>
   </si>
@@ -1590,21 +1566,6 @@
     <t>trans_HM</t>
   </si>
   <si>
-    <t>num_bites</t>
-  </si>
-  <si>
-    <t>Total number of mosquito bites</t>
-  </si>
-  <si>
-    <t>tot_inf</t>
-  </si>
-  <si>
-    <t>Total number of infected humans</t>
-  </si>
-  <si>
-    <t>tot_pop</t>
-  </si>
-  <si>
     <t>Total number of humans</t>
   </si>
   <si>
@@ -1617,9 +1578,6 @@
     <t>w_sum</t>
   </si>
   <si>
-    <t>TGT_POP_SUM(pop, w_sum)</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -1653,27 +1611,12 @@
     <t>Prevalence in mosquitoes</t>
   </si>
   <si>
-    <t>tot_bites</t>
-  </si>
-  <si>
-    <t>mos_bite_factor</t>
-  </si>
-  <si>
     <t>Factor to modify bites in mosquito population</t>
   </si>
   <si>
-    <t>hum_bite_factor</t>
-  </si>
-  <si>
     <t>Factor to modify bites in human population</t>
   </si>
   <si>
-    <t>biting_rate</t>
-  </si>
-  <si>
-    <t>Mosquito births</t>
-  </si>
-  <si>
     <t>const</t>
   </si>
   <si>
@@ -1686,15 +1629,6 @@
     <t>Seasonality</t>
   </si>
   <si>
-    <t>Maximal mosquito birth rate</t>
-  </si>
-  <si>
-    <t>Minimal mosquito birth rate</t>
-  </si>
-  <si>
-    <t>Seasonal influence on the mosquito birth rates</t>
-  </si>
-  <si>
     <t>dalys</t>
   </si>
   <si>
@@ -1956,21 +1890,9 @@
     <t>births</t>
   </si>
   <si>
-    <t>Mosquito biting rate</t>
-  </si>
-  <si>
     <t>m_foi</t>
   </si>
   <si>
-    <t>Susceptible mosquitoes</t>
-  </si>
-  <si>
-    <t>Exposed mosquitoes</t>
-  </si>
-  <si>
-    <t>Infected mosquitoes</t>
-  </si>
-  <si>
     <t>m_incub_max</t>
   </si>
   <si>
@@ -2097,36 +2019,9 @@
     <t>1-CStx</t>
   </si>
   <si>
-    <t>all_inf * daly_weight + avg_years_lost * (hddd + hddt)</t>
-  </si>
-  <si>
-    <t>m_birth_season_max</t>
-  </si>
-  <si>
-    <t>m_birth_season_min</t>
-  </si>
-  <si>
-    <t>m_birth_rate</t>
-  </si>
-  <si>
-    <t>m_birth</t>
-  </si>
-  <si>
-    <t>m_birth / m_death</t>
-  </si>
-  <si>
     <t>m_pop</t>
   </si>
   <si>
-    <t>m_S</t>
-  </si>
-  <si>
-    <t>m_E</t>
-  </si>
-  <si>
-    <t>m_I</t>
-  </si>
-  <si>
     <t>m_prev</t>
   </si>
   <si>
@@ -2142,27 +2037,9 @@
     <t>Mosquito mortality factor</t>
   </si>
   <si>
-    <t>sqrt(4 * biting_rate * trans_HM * tot_inf / tot_pop + m_mor_factor) - m_mor_factor * sqrt(m_mor_factor) / 2</t>
-  </si>
-  <si>
-    <t>m_birth / (m_foi + m_death)</t>
-  </si>
-  <si>
-    <t>m_S * m_foi / (m_incub + m_death)</t>
-  </si>
-  <si>
-    <t>m_S * m_foi * m_incub / ((m_incub + m_death) * m_death)</t>
-  </si>
-  <si>
-    <t>m_I / (m_S + m_E + m_I)</t>
-  </si>
-  <si>
     <t>to_timestep(1 - exp(-1 / m_mor_factor * m_life_exp), dt)</t>
   </si>
   <si>
-    <t>biting_rate * mos_bite_factor * m_pop</t>
-  </si>
-  <si>
     <t>Infectious bite junction</t>
   </si>
   <si>
@@ -2274,42 +2151,6 @@
     <t>J_aPt</t>
   </si>
   <si>
-    <t>TGT_POP_SUM(all_inf, w_sum)</t>
-  </si>
-  <si>
-    <t>bite_weight</t>
-  </si>
-  <si>
-    <t>Relative likelyhood of being bitten</t>
-  </si>
-  <si>
-    <t>pop_bite_weight</t>
-  </si>
-  <si>
-    <t>Weighted bites by population</t>
-  </si>
-  <si>
-    <t>bite_weight * pop</t>
-  </si>
-  <si>
-    <t>tot_bite_weight</t>
-  </si>
-  <si>
-    <t>Total number of weighted bites</t>
-  </si>
-  <si>
-    <t>TGT_POP_SUM(pop_bite_weight, w_sum)</t>
-  </si>
-  <si>
-    <t>Number of mosquito bites in population</t>
-  </si>
-  <si>
-    <t>num_bites * hum_bite_factor * trans_MH * m_prev * all_not_inf / pop</t>
-  </si>
-  <si>
-    <t>1 - exp(-avg_age / life_exp * prev) - exp(-avg_age)</t>
-  </si>
-  <si>
     <t>(1 - aP_prop) * (1 - prev / (exp(prev * sev_factor) - 1))</t>
   </si>
   <si>
@@ -2325,15 +2166,6 @@
     <t>CStx:flow</t>
   </si>
   <si>
-    <t>Debug value</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>pop_bite_weight / tot_bite_weight * tot_bites</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -2370,31 +2202,112 @@
     <t>Daily probability of dying from severe malaria</t>
   </si>
   <si>
-    <t>uPmort</t>
-  </si>
-  <si>
-    <t>sPmort</t>
-  </si>
-  <si>
-    <t>Probability of dying from uncomplicated malaria</t>
-  </si>
-  <si>
-    <t>Probability of dying from severe malaria</t>
-  </si>
-  <si>
-    <t>-ln(1 - uPmort) * 365</t>
-  </si>
-  <si>
-    <t>-ln(1 - sPmort) * 365</t>
-  </si>
-  <si>
-    <t>m_birth_factor</t>
-  </si>
-  <si>
-    <t>Factor to modify mosquito birth rates</t>
-  </si>
-  <si>
-    <t>m_birth_factor * m_birth_rate * ((m_birth_season_max - m_birth_season_min) / 2 * sin(t * 2 * pi) + (m_birth_season_max + m_birth_season_min) / 2)</t>
+    <t>Ntx_S</t>
+  </si>
+  <si>
+    <t>Ntx_L</t>
+  </si>
+  <si>
+    <t>Ntx_uP</t>
+  </si>
+  <si>
+    <t>Ntx_sP</t>
+  </si>
+  <si>
+    <t>Ntx_aP</t>
+  </si>
+  <si>
+    <t>Bites per mosquito per day</t>
+  </si>
+  <si>
+    <t>m_bite_rate</t>
+  </si>
+  <si>
+    <t>h_bite_rate</t>
+  </si>
+  <si>
+    <t>Bites per human per day</t>
+  </si>
+  <si>
+    <t>h_bites</t>
+  </si>
+  <si>
+    <t>Humans bitten per day</t>
+  </si>
+  <si>
+    <t>Infectious humans bitten per day</t>
+  </si>
+  <si>
+    <t>h_tot_bites</t>
+  </si>
+  <si>
+    <t>Total number of infectious humans bitten per day</t>
+  </si>
+  <si>
+    <t>TGT_POP_SUM(h_bites, w_sum)</t>
+  </si>
+  <si>
+    <t>h_inf_bites</t>
+  </si>
+  <si>
+    <t>TGT_POP_SUM(h_inf_bites, w_sum)</t>
+  </si>
+  <si>
+    <t>h_tot_inf_bites</t>
+  </si>
+  <si>
+    <t>h_tot_inf_bites / m_pop</t>
+  </si>
+  <si>
+    <t>m_foi * m_incub / ((m_foi + m_death) * (m_incub + m_death))</t>
+  </si>
+  <si>
+    <t>all_inf * h_bite_rate * h_bite_factor</t>
+  </si>
+  <si>
+    <t>pop * h_bite_rate * m_bite_factor</t>
+  </si>
+  <si>
+    <t>m_bite_factor</t>
+  </si>
+  <si>
+    <t>h_bite_factor</t>
+  </si>
+  <si>
+    <t>1 - exp(-avg_age / life_exp * prev) + exp(-avg_age - prev)</t>
+  </si>
+  <si>
+    <t>Average time of not receiving treatment (latent)</t>
+  </si>
+  <si>
+    <t>Average time of not receiving treatment (susceptible)</t>
+  </si>
+  <si>
+    <t>Average time of not receiving treatment (uncomplicated malaria)</t>
+  </si>
+  <si>
+    <t>Average time of not receiving treatment (severe malaria)</t>
+  </si>
+  <si>
+    <t>Average time of not receiving treatment (asymptomatic malaria)</t>
+  </si>
+  <si>
+    <t>foi:flow * daly_weight + avg_years_lost * (uPdeath:flow + sPdeath:flow + uPtdeath:flow + sPtdeath:flow)</t>
+  </si>
+  <si>
+    <t>m_avg_prev</t>
+  </si>
+  <si>
+    <t>Averaged mosquito prevalence</t>
+  </si>
+  <si>
+    <t>TGT_POP_AVG(m_prev, w_sum)</t>
+  </si>
+  <si>
+    <t>h_bites * trans_MH * m_avg_prev * all_not_inf / pop</t>
+  </si>
+  <si>
+    <t>h_tot_bites * trans_HM / m_bite_rate</t>
   </si>
 </sst>
 </file>
@@ -3497,7 +3410,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3526,34 +3439,34 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3634,7 +3547,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>44</v>
@@ -3660,7 +3573,7 @@
     </row>
     <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>54</v>
@@ -3686,10 +3599,10 @@
     </row>
     <row r="4" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>7</v>
@@ -3712,7 +3625,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>45</v>
@@ -3738,10 +3651,10 @@
     </row>
     <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>7</v>
@@ -3764,10 +3677,10 @@
     </row>
     <row r="7" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>7</v>
@@ -3790,10 +3703,10 @@
     </row>
     <row r="8" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>7</v>
@@ -3816,10 +3729,10 @@
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>7</v>
@@ -3842,10 +3755,10 @@
     </row>
     <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>7</v>
@@ -3868,10 +3781,10 @@
     </row>
     <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>7</v>
@@ -3894,10 +3807,10 @@
     </row>
     <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>7</v>
@@ -3920,10 +3833,10 @@
     </row>
     <row r="13" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>7</v>
@@ -3946,10 +3859,10 @@
     </row>
     <row r="14" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>7</v>
@@ -3972,10 +3885,10 @@
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>7</v>
@@ -3998,10 +3911,10 @@
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>7</v>
@@ -4024,10 +3937,10 @@
     </row>
     <row r="17" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>7</v>
@@ -4050,10 +3963,10 @@
     </row>
     <row r="18" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>7</v>
@@ -4076,10 +3989,10 @@
     </row>
     <row r="19" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>7</v>
@@ -4102,10 +4015,10 @@
     </row>
     <row r="20" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>7</v>
@@ -4128,10 +4041,10 @@
     </row>
     <row r="21" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>7</v>
@@ -4154,10 +4067,10 @@
     </row>
     <row r="22" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>7</v>
@@ -4180,10 +4093,10 @@
     </row>
     <row r="23" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>7</v>
@@ -4206,10 +4119,10 @@
     </row>
     <row r="24" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>7</v>
@@ -4232,10 +4145,10 @@
     </row>
     <row r="25" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>7</v>
@@ -4258,10 +4171,10 @@
     </row>
     <row r="26" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>7</v>
@@ -4284,10 +4197,10 @@
     </row>
     <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>7</v>
@@ -4310,10 +4223,10 @@
     </row>
     <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>7</v>
@@ -4336,10 +4249,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>7</v>
@@ -4362,7 +4275,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>50</v>
@@ -4388,10 +4301,10 @@
     </row>
     <row r="31" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>7</v>
@@ -4414,10 +4327,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>8</v>
@@ -4458,7 +4371,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4500,97 +4413,97 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="49" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>136</v>
-      </c>
       <c r="W1" s="40" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="Y1" s="40" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="Z1" s="40" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="AA1" s="40" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="AB1" s="45" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="AC1" s="40" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AD1" s="40" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AE1" s="40" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="AF1" s="40" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -4599,17 +4512,17 @@
         <v>hS</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="R2"/>
       <c r="AB2" s="20"/>
       <c r="AC2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF2" s="20"/>
     </row>
@@ -4619,22 +4532,22 @@
         <v>hSs</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="R3"/>
       <c r="AB3" s="20"/>
       <c r="AC3" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF3" s="20"/>
     </row>
@@ -4644,10 +4557,10 @@
         <v>J_inf</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AB4" s="20"/>
       <c r="AF4" s="20"/>
@@ -4658,14 +4571,14 @@
         <v>hE</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
       <c r="R5"/>
       <c r="AB5" s="20"/>
       <c r="AC5" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF5" s="20"/>
     </row>
@@ -4675,20 +4588,20 @@
         <v>hL</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="R6"/>
       <c r="AB6" s="20"/>
       <c r="AC6" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF6" s="20"/>
     </row>
@@ -4698,23 +4611,23 @@
         <v>hLs</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
       <c r="R7"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF7" s="20"/>
     </row>
@@ -4724,13 +4637,13 @@
         <v>J_active</v>
       </c>
       <c r="I8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -4745,19 +4658,19 @@
         <v>huPs</v>
       </c>
       <c r="K9" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="P9"/>
       <c r="R9"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AD9" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AF9" s="20"/>
     </row>
@@ -4767,19 +4680,19 @@
         <v>hsPs</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="R10"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AD10" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="AF10" s="20"/>
     </row>
@@ -4789,16 +4702,16 @@
         <v>haP</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="R11" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AB11" s="20"/>
       <c r="AC11" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF11" s="20"/>
     </row>
@@ -4808,17 +4721,17 @@
         <v>haPs</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="R12"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF12" s="20"/>
     </row>
@@ -4828,13 +4741,13 @@
         <v>J_stest</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
       <c r="R13"/>
       <c r="S13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AB13" s="20"/>
       <c r="AC13" s="23"/>
@@ -4846,10 +4759,10 @@
         <v>J_ltest</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AB14" s="20"/>
       <c r="AF14" s="20"/>
@@ -4860,13 +4773,13 @@
         <v>J_uPstest</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="R15"/>
       <c r="U15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AB15" s="20"/>
       <c r="AC15" s="23"/>
@@ -4878,13 +4791,13 @@
         <v>J_sPstest</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="O16"/>
       <c r="P16"/>
       <c r="R16"/>
       <c r="V16" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="AB16" s="20"/>
       <c r="AC16" s="23"/>
@@ -4896,13 +4809,13 @@
         <v>J_aPstest</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="R17"/>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="AB17" s="20"/>
       <c r="AC17" s="23"/>
@@ -4914,10 +4827,10 @@
         <v>J_nr</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AB18" s="20"/>
       <c r="AF18" s="20"/>
@@ -4927,14 +4840,17 @@
         <f>Compartments!A19</f>
         <v>hSt</v>
       </c>
+      <c r="K19" t="s">
+        <v>269</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="R19"/>
       <c r="AB19" s="20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AC19" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF19" s="20"/>
     </row>
@@ -4943,15 +4859,18 @@
         <f>Compartments!A20</f>
         <v>hLt</v>
       </c>
+      <c r="K20" t="s">
+        <v>270</v>
+      </c>
       <c r="O20"/>
       <c r="P20"/>
       <c r="R20"/>
       <c r="X20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AB20" s="20"/>
       <c r="AC20" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF20" s="20"/>
     </row>
@@ -4960,15 +4879,18 @@
         <f>Compartments!A21</f>
         <v>huPt</v>
       </c>
+      <c r="K21" t="s">
+        <v>271</v>
+      </c>
       <c r="O21"/>
       <c r="P21"/>
       <c r="R21"/>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AB21" s="20"/>
       <c r="AC21" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF21" s="20"/>
     </row>
@@ -4977,15 +4899,18 @@
         <f>Compartments!A22</f>
         <v>hsPt</v>
       </c>
+      <c r="K22" t="s">
+        <v>272</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="R22"/>
       <c r="Z22" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AB22" s="20"/>
       <c r="AC22" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF22" s="20"/>
     </row>
@@ -4994,15 +4919,18 @@
         <f>Compartments!A23</f>
         <v>haPt</v>
       </c>
+      <c r="K23" t="s">
+        <v>273</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="R23"/>
       <c r="AA23" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="AB23" s="20"/>
       <c r="AC23" s="23" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF23" s="20"/>
     </row>
@@ -5012,17 +4940,17 @@
         <v>J_Lt</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
       <c r="R24"/>
       <c r="AB24" s="20" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="AC24" s="23"/>
       <c r="AE24" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AF24" s="20"/>
     </row>
@@ -5032,20 +4960,20 @@
         <v>J_uPt</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="P25"/>
       <c r="R25"/>
       <c r="V25" s="46"/>
       <c r="AB25" s="20" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="AC25" s="23"/>
       <c r="AE25" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AF25" s="20"/>
     </row>
@@ -5055,15 +4983,15 @@
         <v>J_sPt</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O26"/>
       <c r="P26" s="23" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="R26"/>
       <c r="AB26" s="20" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="AC26" s="23"/>
       <c r="AF26" s="20"/>
@@ -5074,16 +5002,16 @@
         <v>J_aPt</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" s="23" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="R27"/>
       <c r="AB27" s="20" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="AC27" s="23"/>
       <c r="AF27" s="20"/>
@@ -5094,7 +5022,7 @@
         <v>hR</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -5123,7 +5051,7 @@
       <c r="AA28" s="22"/>
       <c r="AB28" s="21"/>
       <c r="AC28" s="19" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AD28" s="22"/>
       <c r="AE28" s="22"/>
@@ -5168,7 +5096,7 @@
         <v>hbb</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -5258,13 +5186,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z130"/>
+  <dimension ref="A1:Z121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5306,7 +5234,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>6</v>
@@ -5322,118 +5250,130 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>41</v>
+      <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="E2" s="28">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5">
+        <f>30/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="28"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>42</v>
+      <c r="A3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="28">
-        <v>0.47</v>
-      </c>
-      <c r="E3" s="28">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5">
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="28"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>179</v>
+      <c r="A4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="28"/>
-    </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>186</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>210</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5">
-        <f>30/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="D6" s="28">
+        <f>35/365</f>
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="28" t="s">
         <v>7</v>
       </c>
@@ -5443,32 +5383,29 @@
       <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>187</v>
+      <c r="K6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>7</v>
@@ -5476,26 +5413,26 @@
       <c r="J7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
+      <c r="K7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>173</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>188</v>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="37" t="s">
+        <v>214</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>7</v>
@@ -5506,105 +5443,107 @@
       <c r="J8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>89</v>
+      <c r="A10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.47</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5">
-        <v>500000000</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>7</v>
@@ -5612,27 +5551,29 @@
       <c r="J12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>323</v>
+      <c r="K12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>324</v>
+        <v>72</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="28">
         <v>1</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="28" t="s">
         <v>8</v>
       </c>
@@ -5643,174 +5584,209 @@
         <v>7</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28">
+        <v>0.3</v>
+      </c>
       <c r="E14" s="28">
         <v>0</v>
       </c>
       <c r="F14" s="28"/>
-      <c r="G14" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+    <row r="15" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
       <c r="F15" s="28"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="28">
-        <f>35/365</f>
-        <v>9.5890410958904104E-2</v>
-      </c>
-      <c r="E16" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
       <c r="F16" s="28"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>38</v>
-      </c>
+      <c r="G16" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="28">
-        <v>1</v>
-      </c>
-      <c r="E17" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
       <c r="F17" s="28"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="G17" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="28"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
       <c r="F18" s="28"/>
-      <c r="G18" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="28" t="s">
+      <c r="G18" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+    <row r="19" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="28">
+        <v>0</v>
+      </c>
       <c r="F19" s="28"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="G19" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="23" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>7</v>
@@ -5821,26 +5797,40 @@
       <c r="J20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
     </row>
     <row r="21" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28">
+      <c r="A21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
         <v>0</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="23" t="s">
-        <v>285</v>
+      <c r="F21" s="5"/>
+      <c r="G21" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>7</v>
@@ -5851,26 +5841,40 @@
       <c r="J21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
     </row>
     <row r="22" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>209</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="23" t="s">
-        <v>231</v>
+        <v>43</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>7</v>
@@ -5900,21 +5904,21 @@
     </row>
     <row r="23" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>300</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="23" t="s">
-        <v>241</v>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>7</v>
@@ -5942,45 +5946,49 @@
       <c r="Y23" s="47"/>
       <c r="Z23" s="47"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>7</v>
-      </c>
+    <row r="24" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
     </row>
     <row r="25" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>182</v>
+      <c r="A25" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>243</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E25" s="29">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
         <v>7</v>
       </c>
@@ -5990,39 +5998,30 @@
       <c r="J25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
+      <c r="K25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>183</v>
+      <c r="A26" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>264</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>244</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D26" s="35">
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
         <v>7</v>
       </c>
@@ -6032,38 +6031,28 @@
       <c r="J26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
+      <c r="K26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
+      <c r="A27" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>245</v>
+      <c r="D27" s="5"/>
+      <c r="E27" s="29">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>7</v>
@@ -6074,272 +6063,341 @@
       <c r="J27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-    </row>
-    <row r="29" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="28" t="s">
+      <c r="A28" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="28">
-        <v>1</v>
-      </c>
-      <c r="E29" s="28">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+    </row>
+    <row r="30" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+    </row>
+    <row r="31" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="5">
+        <f>10/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="E31" s="29">
         <v>0</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="28" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4">
+        <f>180/365</f>
+        <v>0.49315068493150682</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+    </row>
+    <row r="33" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="28"/>
-    </row>
-    <row r="30" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="28">
-        <v>1</v>
-      </c>
-      <c r="E30" s="28">
-        <v>0</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="28"/>
-    </row>
-    <row r="31" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="28" t="s">
+      <c r="I33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+    </row>
+    <row r="34" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+    </row>
+    <row r="35" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28">
-        <v>0</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-    </row>
-    <row r="32" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32" s="28" t="s">
+      <c r="D35" s="4">
+        <v>100</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+    </row>
+    <row r="36" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="H32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="28"/>
-    </row>
-    <row r="33" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-    </row>
-    <row r="34" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28">
-        <v>0</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-    </row>
-    <row r="35" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28">
-        <v>0</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-    </row>
-    <row r="36" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="H36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="L36" s="4"/>
       <c r="M36" s="47"/>
       <c r="N36" s="47"/>
@@ -6357,20 +6415,21 @@
       <c r="Z36" s="47"/>
     </row>
     <row r="37" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>311</v>
+      <c r="A37" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="29">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D37" s="4">
+        <v>180</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="5" t="s">
         <v>7</v>
       </c>
@@ -6380,120 +6439,168 @@
       <c r="J37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L37" s="5"/>
+      <c r="K37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
     </row>
     <row r="38" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>312</v>
+      <c r="A38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+    </row>
+    <row r="39" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+    </row>
+    <row r="40" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+    </row>
+    <row r="41" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="35">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
-      </c>
-      <c r="E38" s="29">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="29">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="5">
+        <f>10/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="G41" s="4"/>
       <c r="H41" s="5" t="s">
         <v>7</v>
       </c>
@@ -6503,7 +6610,9 @@
       <c r="J41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="L41" s="4"/>
       <c r="M41" s="47"/>
       <c r="N41" s="47"/>
@@ -6520,67 +6629,48 @@
       <c r="Y41" s="47"/>
       <c r="Z41" s="47"/>
     </row>
-    <row r="42" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>195</v>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>259</v>
+        <v>23</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
+      <c r="K42" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="43" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>37</v>
+      <c r="A43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="5">
-        <f>10/365</f>
-        <v>2.7397260273972601E-2</v>
-      </c>
-      <c r="E43" s="29">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="36"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
         <v>7</v>
       </c>
@@ -6590,28 +6680,27 @@
       <c r="J43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>40</v>
+      <c r="K43" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>197</v>
+        <v>144</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="4">
-        <f>180/365</f>
-        <v>0.49315068493150682</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="H44" s="5" t="s">
         <v>7</v>
       </c>
@@ -6620,9 +6709,6 @@
       </c>
       <c r="J44" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="47"/>
@@ -6641,21 +6727,23 @@
       <c r="Z44" s="47"/>
     </row>
     <row r="45" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>149</v>
+      <c r="A45" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.01</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>7</v>
@@ -6683,17 +6771,33 @@
       <c r="Z45" s="47"/>
     </row>
     <row r="46" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.05</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="H46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="47"/>
       <c r="N46" s="47"/>
@@ -6711,17 +6815,17 @@
       <c r="Z46" s="47"/>
     </row>
     <row r="47" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>260</v>
+      <c r="A47" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D47" s="4">
-        <v>100</v>
+        <v>0.98</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -6736,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="47"/>
@@ -6755,16 +6859,18 @@
       <c r="Z47" s="47"/>
     </row>
     <row r="48" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>262</v>
+      <c r="A48" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.98</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -6778,7 +6884,7 @@
         <v>7</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="47"/>
@@ -6797,17 +6903,17 @@
       <c r="Z48" s="47"/>
     </row>
     <row r="49" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>264</v>
+      <c r="A49" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D49" s="4">
-        <v>180</v>
+        <v>0.9</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -6822,7 +6928,7 @@
         <v>7</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="47"/>
@@ -6842,10 +6948,10 @@
     </row>
     <row r="50" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>43</v>
@@ -6854,7 +6960,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>7</v>
@@ -6883,11 +6989,11 @@
       <c r="Z50" s="47"/>
     </row>
     <row r="51" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>153</v>
+      <c r="A51" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>43</v>
@@ -6896,7 +7002,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>7</v>
@@ -6925,11 +7031,11 @@
       <c r="Z51" s="47"/>
     </row>
     <row r="52" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>152</v>
+      <c r="A52" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>43</v>
@@ -6938,7 +7044,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>7</v>
@@ -6967,22 +7073,21 @@
       <c r="Z52" s="47"/>
     </row>
     <row r="53" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>156</v>
+      <c r="A53" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="5">
-        <f>10/365</f>
-        <v>2.7397260273972601E-2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="H53" s="5" t="s">
         <v>7</v>
       </c>
@@ -6992,9 +7097,7 @@
       <c r="J53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="47"/>
       <c r="N53" s="47"/>
@@ -7011,48 +7114,64 @@
       <c r="Y53" s="47"/>
       <c r="Z53" s="47"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>267</v>
+    <row r="54" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
     </row>
     <row r="55" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>269</v>
+      <c r="A55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="5">
-        <v>7</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
       <c r="H55" s="5" t="s">
         <v>7</v>
       </c>
@@ -7063,25 +7182,39 @@
         <v>7</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L55" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
     </row>
     <row r="56" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>203</v>
+        <v>157</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>7</v>
@@ -7092,6 +7225,7 @@
       <c r="J56" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="47"/>
       <c r="N56" s="47"/>
@@ -7110,17 +7244,15 @@
     </row>
     <row r="57" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0.01</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -7153,18 +7285,16 @@
       <c r="Z57" s="47"/>
     </row>
     <row r="58" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
-        <v>162</v>
+      <c r="A58" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0.05</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -7197,18 +7327,16 @@
       <c r="Z58" s="47"/>
     </row>
     <row r="59" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
-        <v>164</v>
+      <c r="A59" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0.98</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -7241,18 +7369,16 @@
       <c r="Z59" s="47"/>
     </row>
     <row r="60" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
-        <v>166</v>
+      <c r="A60" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0.98</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -7285,18 +7411,16 @@
       <c r="Z60" s="47"/>
     </row>
     <row r="61" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
-        <v>169</v>
+      <c r="A61" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0.9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -7329,23 +7453,21 @@
       <c r="Z61" s="47"/>
     </row>
     <row r="62" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>160</v>
+      <c r="A62" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4" t="s">
-        <v>215</v>
-      </c>
+      <c r="G62" s="4"/>
       <c r="H62" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>7</v>
@@ -7353,7 +7475,9 @@
       <c r="J62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K62" s="4"/>
+      <c r="K62" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L62" s="4"/>
       <c r="M62" s="47"/>
       <c r="N62" s="47"/>
@@ -7372,20 +7496,20 @@
     </row>
     <row r="63" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4">
+        <v>0.95</v>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="G63" s="4"/>
       <c r="H63" s="5" t="s">
         <v>7</v>
       </c>
@@ -7395,7 +7519,9 @@
       <c r="J63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L63" s="4"/>
       <c r="M63" s="47"/>
       <c r="N63" s="47"/>
@@ -7414,10 +7540,10 @@
     </row>
     <row r="64" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>43</v>
@@ -7426,7 +7552,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>7</v>
@@ -7456,20 +7582,20 @@
     </row>
     <row r="65" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="5" t="s">
         <v>7</v>
       </c>
@@ -7479,7 +7605,9 @@
       <c r="J65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="L65" s="4"/>
       <c r="M65" s="47"/>
       <c r="N65" s="47"/>
@@ -7498,20 +7626,21 @@
     </row>
     <row r="66" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D66" s="4">
+        <f>14/265</f>
+        <v>5.2830188679245285E-2</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="5" t="s">
         <v>7</v>
       </c>
@@ -7521,7 +7650,9 @@
       <c r="J66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="4"/>
+      <c r="K66" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="L66" s="4"/>
       <c r="M66" s="47"/>
       <c r="N66" s="47"/>
@@ -7538,66 +7669,52 @@
       <c r="Y66" s="47"/>
       <c r="Z66" s="47"/>
     </row>
-    <row r="67" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="4">
+    <row r="67" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28">
         <v>0</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="47"/>
-      <c r="Y67" s="47"/>
-      <c r="Z67" s="47"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L67" s="28"/>
     </row>
     <row r="68" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>220</v>
+        <v>136</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4" t="s">
-        <v>221</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
         <v>7</v>
       </c>
@@ -7607,7 +7724,9 @@
       <c r="J68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="4"/>
+      <c r="K68" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="L68" s="4"/>
       <c r="M68" s="47"/>
       <c r="N68" s="47"/>
@@ -7626,18 +7745,18 @@
     </row>
     <row r="69" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="G69" s="50"/>
       <c r="H69" s="5" t="s">
         <v>7</v>
       </c>
@@ -7647,8 +7766,8 @@
       <c r="J69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="4" t="s">
-        <v>46</v>
+      <c r="K69" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="47"/>
@@ -7668,20 +7787,18 @@
     </row>
     <row r="70" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" s="4">
-        <v>0.95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+      <c r="G70" s="50"/>
       <c r="H70" s="5" t="s">
         <v>7</v>
       </c>
@@ -7691,8 +7808,8 @@
       <c r="J70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>46</v>
+      <c r="K70" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="47"/>
@@ -7712,10 +7829,10 @@
     </row>
     <row r="71" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>43</v>
@@ -7723,9 +7840,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="5" t="s">
         <v>7</v>
       </c>
@@ -7735,7 +7850,9 @@
       <c r="J71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K71" s="4"/>
+      <c r="K71" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="L71" s="4"/>
       <c r="M71" s="47"/>
       <c r="N71" s="47"/>
@@ -7752,134 +7869,82 @@
       <c r="Y71" s="47"/>
       <c r="Z71" s="47"/>
     </row>
-    <row r="72" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="4">
+      <c r="H72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5">
         <v>0</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="47"/>
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="47"/>
-      <c r="W72" s="47"/>
-      <c r="X72" s="47"/>
-      <c r="Y72" s="47"/>
-      <c r="Z72" s="47"/>
-    </row>
-    <row r="73" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="4">
-        <f>14/265</f>
-        <v>5.2830188679245285E-2</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="47"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="47"/>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="47"/>
-      <c r="Z73" s="47"/>
-    </row>
-    <row r="74" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C74" s="23" t="s">
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28">
-        <v>0</v>
-      </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J74" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K74" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L74" s="28"/>
-    </row>
-    <row r="75" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5">
@@ -7897,38 +7962,28 @@
         <v>7</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-      <c r="P75" s="47"/>
-      <c r="Q75" s="47"/>
-      <c r="R75" s="47"/>
-      <c r="S75" s="47"/>
-      <c r="T75" s="47"/>
-      <c r="U75" s="47"/>
-      <c r="V75" s="47"/>
-      <c r="W75" s="47"/>
-      <c r="X75" s="47"/>
-      <c r="Y75" s="47"/>
-      <c r="Z75" s="47"/>
+        <v>80</v>
+      </c>
+      <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>315</v>
+      <c r="A76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="G76" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="H76" s="5" t="s">
         <v>7</v>
       </c>
@@ -7938,368 +7993,107 @@
       <c r="J76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="47"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="47"/>
-      <c r="V76" s="47"/>
-      <c r="W76" s="47"/>
-      <c r="X76" s="47"/>
-      <c r="Y76" s="47"/>
-      <c r="Z76" s="47"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="47"/>
-      <c r="S77" s="47"/>
-      <c r="T77" s="47"/>
-      <c r="U77" s="47"/>
-      <c r="V77" s="47"/>
-      <c r="W77" s="47"/>
-      <c r="X77" s="47"/>
-      <c r="Y77" s="47"/>
-      <c r="Z77" s="47"/>
-    </row>
-    <row r="78" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="47"/>
-      <c r="S78" s="47"/>
-      <c r="T78" s="47"/>
-      <c r="U78" s="47"/>
-      <c r="V78" s="47"/>
-      <c r="W78" s="47"/>
-      <c r="X78" s="47"/>
-      <c r="Y78" s="47"/>
-      <c r="Z78" s="47"/>
-    </row>
-    <row r="79" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="47"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="47"/>
-      <c r="V79" s="47"/>
-      <c r="W79" s="47"/>
-      <c r="X79" s="47"/>
-      <c r="Y79" s="47"/>
-      <c r="Z79" s="47"/>
-    </row>
-    <row r="80" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L80" s="4"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="47"/>
-      <c r="S80" s="47"/>
-      <c r="T80" s="47"/>
-      <c r="U80" s="47"/>
-      <c r="V80" s="47"/>
-      <c r="W80" s="47"/>
-      <c r="X80" s="47"/>
-      <c r="Y80" s="47"/>
-      <c r="Z80" s="47"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5">
-        <v>0</v>
-      </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L83" s="5"/>
-    </row>
-    <row r="84" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5">
-        <v>0</v>
-      </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5">
-        <v>0</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-    </row>
-    <row r="86" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+    </row>
     <row r="89" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+    </row>
     <row r="92" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-    </row>
+    <row r="93" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
@@ -8314,8 +8108,8 @@
       <c r="K97"/>
       <c r="L97"/>
     </row>
-    <row r="98" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
@@ -8330,8 +8124,34 @@
       <c r="K100"/>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+    </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
@@ -8346,8 +8166,8 @@
       <c r="K103"/>
       <c r="L103"/>
     </row>
-    <row r="104" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
@@ -8364,34 +8184,8 @@
     </row>
     <row r="107" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
-    </row>
+    <row r="109" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
@@ -8436,10 +8230,62 @@
       <c r="K115"/>
       <c r="L115"/>
     </row>
-    <row r="116" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+    </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
@@ -8468,112 +8314,12 @@
       <c r="K121"/>
       <c r="L121"/>
     </row>
-    <row r="122" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127"/>
-      <c r="K127"/>
-      <c r="L127"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128"/>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="L128"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130"/>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:J8 H47:J81 H83:J85 H2:J4 H29:J35 H37:J45 H10:J27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J4 H35:J72 H74:J76 H25:J33 H6:J23">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C83:C85 C2:C4 C29:C35 C10:C27 C37:C81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 C74:C76 C25:C72 C6:C23">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8642,10 +8388,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -8663,13 +8409,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -8687,13 +8433,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -8714,10 +8460,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -8764,13 +8510,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -8853,10 +8599,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" s="32">
         <v>1</v>
@@ -8933,10 +8679,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8952,43 +8698,43 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8996,13 +8742,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9010,24 +8756,24 @@
         <v>50</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>47</v>
@@ -9035,58 +8781,44 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/atomica/library/malaria_framework.xlsx
+++ b/atomica/library/malaria_framework.xlsx
@@ -769,7 +769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -779,19 +779,6 @@
             <family val="2"/>
           </rPr>
           <t>This column defines a 'default_value' attribute for a 'par' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'min' attribute for a 'par' item.</t>
         </r>
       </text>
     </comment>
@@ -804,7 +791,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This column defines a 'max' attribute for a 'par' item.</t>
+          <t>This column defines a 'min' attribute for a 'par' item.</t>
         </r>
       </text>
     </comment>
@@ -813,15 +800,28 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This column defines a 'func' attribute for a 'par' item.</t>
+          <t>This column defines a 'max' attribute for a 'par' item.</t>
         </r>
       </text>
     </comment>
     <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column defines a 'func' attribute for a 'par' item.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -838,7 +838,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -852,7 +852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="1">
+    <comment ref="H8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -964,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="1">
+    <comment ref="E26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1012,7 +1012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="1">
+    <comment ref="H69" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="306">
   <si>
     <t>Code Name</t>
   </si>
@@ -1503,12 +1503,6 @@
     <t>All infected people</t>
   </si>
   <si>
-    <t>Incubation period (mosquito)</t>
-  </si>
-  <si>
-    <t>Incubation period</t>
-  </si>
-  <si>
     <t>mprop</t>
   </si>
   <si>
@@ -1899,12 +1893,6 @@
     <t>m_incub_min</t>
   </si>
   <si>
-    <t>Maximal mosquito incubation period</t>
-  </si>
-  <si>
-    <t>Minimal mosquito incubation period</t>
-  </si>
-  <si>
     <t>(m_incub_max - m_incub_min) / 2 * sin(t * 2 * pi) + (m_incub_max + m_incub_min) / 2</t>
   </si>
   <si>
@@ -1932,9 +1920,6 @@
     <t>E_act</t>
   </si>
   <si>
-    <t>Duration of latent period</t>
-  </si>
-  <si>
     <t>Number of tests</t>
   </si>
   <si>
@@ -2025,9 +2010,6 @@
     <t>m_prev</t>
   </si>
   <si>
-    <t>Mosquito life expectancy</t>
-  </si>
-  <si>
     <t>m_life_exp</t>
   </si>
   <si>
@@ -2190,9 +2172,6 @@
     <t>Time until malaria-like symptoms are cured</t>
   </si>
   <si>
-    <t>Duration of post-treatment immunity</t>
-  </si>
-  <si>
     <t>Proportion of people who die during treatment of severe malaria</t>
   </si>
   <si>
@@ -2308,6 +2287,30 @@
   </si>
   <si>
     <t>h_tot_bites * trans_HM / m_bite_rate</t>
+  </si>
+  <si>
+    <t>Timescale</t>
+  </si>
+  <si>
+    <t>Maximal mosquito incubation period [years]</t>
+  </si>
+  <si>
+    <t>Minimal mosquito incubation period [years]</t>
+  </si>
+  <si>
+    <t>Incubation period (mosquito) [years]</t>
+  </si>
+  <si>
+    <t>Mosquito life expectancy  [years]</t>
+  </si>
+  <si>
+    <t>Incubation period in days</t>
+  </si>
+  <si>
+    <t>Duration of latent period in weeks</t>
+  </si>
+  <si>
+    <t>Duration of post-treatment immunity in days</t>
   </si>
 </sst>
 </file>
@@ -3407,66 +3410,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3547,10 +3550,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>7</v>
@@ -3573,10 +3576,10 @@
     </row>
     <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>7</v>
@@ -3599,10 +3602,10 @@
     </row>
     <row r="4" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>7</v>
@@ -3625,10 +3628,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>7</v>
@@ -3651,10 +3654,10 @@
     </row>
     <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>99</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>7</v>
@@ -3677,10 +3680,10 @@
     </row>
     <row r="7" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>100</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>7</v>
@@ -3703,10 +3706,10 @@
     </row>
     <row r="8" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>7</v>
@@ -3729,10 +3732,10 @@
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>7</v>
@@ -3755,10 +3758,10 @@
     </row>
     <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>7</v>
@@ -3781,10 +3784,10 @@
     </row>
     <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>7</v>
@@ -3807,10 +3810,10 @@
     </row>
     <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>7</v>
@@ -3833,10 +3836,10 @@
     </row>
     <row r="13" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>7</v>
@@ -3859,10 +3862,10 @@
     </row>
     <row r="14" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>7</v>
@@ -3885,10 +3888,10 @@
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>7</v>
@@ -3911,10 +3914,10 @@
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>7</v>
@@ -3937,10 +3940,10 @@
     </row>
     <row r="17" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>7</v>
@@ -3963,10 +3966,10 @@
     </row>
     <row r="18" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>7</v>
@@ -3989,10 +3992,10 @@
     </row>
     <row r="19" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>117</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>7</v>
@@ -4015,10 +4018,10 @@
     </row>
     <row r="20" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>7</v>
@@ -4041,10 +4044,10 @@
     </row>
     <row r="21" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>7</v>
@@ -4067,10 +4070,10 @@
     </row>
     <row r="22" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>7</v>
@@ -4093,10 +4096,10 @@
     </row>
     <row r="23" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>7</v>
@@ -4119,10 +4122,10 @@
     </row>
     <row r="24" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>7</v>
@@ -4145,10 +4148,10 @@
     </row>
     <row r="25" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>7</v>
@@ -4171,10 +4174,10 @@
     </row>
     <row r="26" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>7</v>
@@ -4197,10 +4200,10 @@
     </row>
     <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>7</v>
@@ -4223,10 +4226,10 @@
     </row>
     <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>7</v>
@@ -4249,10 +4252,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>7</v>
@@ -4275,10 +4278,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>7</v>
@@ -4301,10 +4304,10 @@
     </row>
     <row r="31" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>7</v>
@@ -4327,10 +4330,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>92</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>8</v>
@@ -4413,97 +4416,97 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="F1" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z1" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA1" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB1" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="40" t="s">
+      <c r="AD1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="W1" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="X1" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y1" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z1" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA1" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB1" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AE1" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="40" t="s">
         <v>88</v>
-      </c>
-      <c r="AD1" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE1" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF1" s="40" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -4512,17 +4515,17 @@
         <v>hS</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="R2"/>
       <c r="AB2" s="20"/>
       <c r="AC2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF2" s="20"/>
     </row>
@@ -4532,22 +4535,22 @@
         <v>hSs</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="R3"/>
       <c r="AB3" s="20"/>
       <c r="AC3" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF3" s="20"/>
     </row>
@@ -4557,10 +4560,10 @@
         <v>J_inf</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AB4" s="20"/>
       <c r="AF4" s="20"/>
@@ -4571,14 +4574,14 @@
         <v>hE</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
       <c r="R5"/>
       <c r="AB5" s="20"/>
       <c r="AC5" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF5" s="20"/>
     </row>
@@ -4588,20 +4591,20 @@
         <v>hL</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="R6"/>
       <c r="AB6" s="20"/>
       <c r="AC6" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF6" s="20"/>
     </row>
@@ -4611,23 +4614,23 @@
         <v>hLs</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
       <c r="R7"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF7" s="20"/>
     </row>
@@ -4637,13 +4640,13 @@
         <v>J_active</v>
       </c>
       <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" t="s">
         <v>138</v>
-      </c>
-      <c r="J8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" t="s">
-        <v>140</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -4658,19 +4661,19 @@
         <v>huPs</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P9"/>
       <c r="R9"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF9" s="20"/>
     </row>
@@ -4680,19 +4683,19 @@
         <v>hsPs</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R10"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF10" s="20"/>
     </row>
@@ -4702,16 +4705,16 @@
         <v>haP</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="R11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB11" s="20"/>
       <c r="AC11" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF11" s="20"/>
     </row>
@@ -4721,17 +4724,17 @@
         <v>haPs</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R12"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF12" s="20"/>
     </row>
@@ -4741,13 +4744,13 @@
         <v>J_stest</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
       <c r="R13"/>
       <c r="S13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB13" s="20"/>
       <c r="AC13" s="23"/>
@@ -4759,10 +4762,10 @@
         <v>J_ltest</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AB14" s="20"/>
       <c r="AF14" s="20"/>
@@ -4773,13 +4776,13 @@
         <v>J_uPstest</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="R15"/>
       <c r="U15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB15" s="20"/>
       <c r="AC15" s="23"/>
@@ -4791,13 +4794,13 @@
         <v>J_sPstest</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O16"/>
       <c r="P16"/>
       <c r="R16"/>
       <c r="V16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AB16" s="20"/>
       <c r="AC16" s="23"/>
@@ -4809,13 +4812,13 @@
         <v>J_aPstest</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
       <c r="R17"/>
       <c r="W17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AB17" s="20"/>
       <c r="AC17" s="23"/>
@@ -4827,10 +4830,10 @@
         <v>J_nr</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB18" s="20"/>
       <c r="AF18" s="20"/>
@@ -4841,16 +4844,16 @@
         <v>hSt</v>
       </c>
       <c r="K19" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="R19"/>
       <c r="AB19" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AC19" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF19" s="20"/>
     </row>
@@ -4860,17 +4863,17 @@
         <v>hLt</v>
       </c>
       <c r="K20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
       <c r="R20"/>
       <c r="X20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB20" s="20"/>
       <c r="AC20" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF20" s="20"/>
     </row>
@@ -4880,17 +4883,17 @@
         <v>huPt</v>
       </c>
       <c r="K21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O21"/>
       <c r="P21"/>
       <c r="R21"/>
       <c r="Y21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB21" s="20"/>
       <c r="AC21" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF21" s="20"/>
     </row>
@@ -4900,17 +4903,17 @@
         <v>hsPt</v>
       </c>
       <c r="K22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="R22"/>
       <c r="Z22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB22" s="20"/>
       <c r="AC22" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF22" s="20"/>
     </row>
@@ -4920,17 +4923,17 @@
         <v>haPt</v>
       </c>
       <c r="K23" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="R23"/>
       <c r="AA23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB23" s="20"/>
       <c r="AC23" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF23" s="20"/>
     </row>
@@ -4940,17 +4943,17 @@
         <v>J_Lt</v>
       </c>
       <c r="N24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O24"/>
       <c r="P24"/>
       <c r="R24"/>
       <c r="AB24" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC24" s="23"/>
       <c r="AE24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF24" s="20"/>
     </row>
@@ -4960,20 +4963,20 @@
         <v>J_uPt</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P25"/>
       <c r="R25"/>
       <c r="V25" s="46"/>
       <c r="AB25" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC25" s="23"/>
       <c r="AE25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AF25" s="20"/>
     </row>
@@ -4983,15 +4986,15 @@
         <v>J_sPt</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O26"/>
       <c r="P26" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R26"/>
       <c r="AB26" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC26" s="23"/>
       <c r="AF26" s="20"/>
@@ -5002,16 +5005,16 @@
         <v>J_aPt</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R27"/>
       <c r="AB27" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC27" s="23"/>
       <c r="AF27" s="20"/>
@@ -5022,7 +5025,7 @@
         <v>hR</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -5051,7 +5054,7 @@
       <c r="AA28" s="22"/>
       <c r="AB28" s="21"/>
       <c r="AC28" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD28" s="22"/>
       <c r="AE28" s="22"/>
@@ -5096,7 +5099,7 @@
         <v>hbb</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -5186,13 +5189,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z121"/>
+  <dimension ref="A1:AA121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5200,18 +5203,19 @@
     <col min="1" max="1" width="19.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="101.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="101.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5222,117 +5226,120 @@
         <v>11</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>58</v>
-      </c>
       <c r="I1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5">
         <f>30/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5">
         <f>7/365</f>
         <v>1.9178082191780823E-2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>7</v>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>7</v>
@@ -5340,14 +5347,17 @@
       <c r="J4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
@@ -5356,27 +5366,26 @@
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="4"/>
+      <c r="E6" s="28">
         <f>35/365</f>
         <v>9.5890410958904104E-2</v>
       </c>
-      <c r="E6" s="28"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="28" t="s">
         <v>7</v>
       </c>
@@ -5384,58 +5393,60 @@
         <v>7</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="4"/>
+      <c r="E7" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="28"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="28" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>7</v>
-      </c>
       <c r="J7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>7</v>
+      <c r="G8" s="28"/>
+      <c r="H8" s="37" t="s">
+        <v>208</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>7</v>
@@ -5443,233 +5454,241 @@
       <c r="J8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="4"/>
+      <c r="E10" s="28">
         <v>0.05</v>
       </c>
-      <c r="E10" s="28">
+      <c r="F10" s="28">
         <v>0</v>
       </c>
-      <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H10" s="28"/>
       <c r="I10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="4"/>
+      <c r="E11" s="28">
         <v>0.47</v>
       </c>
-      <c r="E11" s="28">
+      <c r="F11" s="28">
         <v>0</v>
       </c>
-      <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H11" s="28"/>
       <c r="I11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="28"/>
-    </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="28">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="28">
         <v>1</v>
       </c>
-      <c r="E12" s="28">
+      <c r="F12" s="28">
         <v>0</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="28" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="28" t="s">
-        <v>7</v>
-      </c>
       <c r="J12" s="28" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="28">
-        <v>1</v>
-      </c>
-      <c r="E13" s="28">
-        <v>0</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="4"/>
+      <c r="E14" s="28">
         <v>0.3</v>
       </c>
-      <c r="E14" s="28">
+      <c r="F14" s="28">
         <v>0</v>
       </c>
-      <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H14" s="28"/>
       <c r="I14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28">
+      <c r="D15" s="4"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28">
         <v>0</v>
       </c>
-      <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H15" s="28"/>
       <c r="I15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28">
+      <c r="D16" s="4"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28">
         <v>0</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>7</v>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>282</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>7</v>
@@ -5677,29 +5696,30 @@
       <c r="J16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28">
+      <c r="D17" s="4"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28">
         <v>0</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>7</v>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>283</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>7</v>
@@ -5707,29 +5727,30 @@
       <c r="J17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L17" s="28"/>
-    </row>
-    <row r="18" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28">
+      <c r="D18" s="4"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28">
         <v>0</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>7</v>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>276</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>7</v>
@@ -5737,29 +5758,30 @@
       <c r="J18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="28"/>
+      <c r="K18" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L18" s="28"/>
-    </row>
-    <row r="19" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28">
+      <c r="D19" s="4"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28">
         <v>0</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>7</v>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23" t="s">
+        <v>278</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>7</v>
@@ -5767,29 +5789,30 @@
       <c r="J19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L19" s="28"/>
-    </row>
-    <row r="20" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>7</v>
+      <c r="G20" s="5"/>
+      <c r="H20" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>7</v>
@@ -5797,9 +5820,11 @@
       <c r="J20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="47"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="47"/>
       <c r="O20" s="47"/>
       <c r="P20" s="47"/>
@@ -5813,27 +5838,26 @@
       <c r="X20" s="47"/>
       <c r="Y20" s="47"/>
       <c r="Z20" s="47"/>
-    </row>
-    <row r="21" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="47"/>
+    </row>
+    <row r="21" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>7</v>
+      <c r="G21" s="5"/>
+      <c r="H21" s="29" t="s">
+        <v>280</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>7</v>
@@ -5841,9 +5865,11 @@
       <c r="J21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="47"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="47"/>
       <c r="O21" s="47"/>
       <c r="P21" s="47"/>
@@ -5857,27 +5883,26 @@
       <c r="X21" s="47"/>
       <c r="Y21" s="47"/>
       <c r="Z21" s="47"/>
-    </row>
-    <row r="22" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="47"/>
+    </row>
+    <row r="22" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>7</v>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>7</v>
@@ -5885,9 +5910,11 @@
       <c r="J22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="47"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="47"/>
       <c r="O22" s="47"/>
       <c r="P22" s="47"/>
@@ -5901,27 +5928,26 @@
       <c r="X22" s="47"/>
       <c r="Y22" s="47"/>
       <c r="Z22" s="47"/>
-    </row>
-    <row r="23" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="47"/>
+    </row>
+    <row r="23" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>7</v>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>7</v>
@@ -5929,9 +5955,11 @@
       <c r="J23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L23" s="4"/>
-      <c r="M23" s="47"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="47"/>
       <c r="O23" s="47"/>
       <c r="P23" s="47"/>
@@ -5945,8 +5973,9 @@
       <c r="X23" s="47"/>
       <c r="Y23" s="47"/>
       <c r="Z23" s="47"/>
-    </row>
-    <row r="24" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="47"/>
+    </row>
+    <row r="24" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5959,7 +5988,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="47"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="47"/>
       <c r="O24" s="47"/>
       <c r="P24" s="47"/>
@@ -5973,25 +6002,24 @@
       <c r="X24" s="47"/>
       <c r="Y24" s="47"/>
       <c r="Z24" s="47"/>
-    </row>
-    <row r="25" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="47"/>
+    </row>
+    <row r="25" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="29">
+      <c r="D25" s="4"/>
+      <c r="F25" s="29">
         <v>0</v>
       </c>
-      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
         <v>7</v>
       </c>
@@ -5999,32 +6027,36 @@
         <v>7</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="35">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
-      </c>
-      <c r="E26" s="29">
+      <c r="D26" s="4">
+        <f>1/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="E26" s="35">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="F26" s="29">
         <v>0</v>
       </c>
-      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
         <v>7</v>
       </c>
@@ -6032,30 +6064,34 @@
         <v>7</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="29">
+      <c r="D27" s="4">
+        <f>1/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="29">
         <v>0</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>303</v>
-      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>7</v>
@@ -6063,28 +6099,29 @@
       <c r="J27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="5" t="s">
         <v>7</v>
       </c>
@@ -6092,28 +6129,29 @@
         <v>7</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>7</v>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>7</v>
@@ -6121,9 +6159,11 @@
       <c r="J29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="47"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="47"/>
       <c r="O29" s="47"/>
       <c r="P29" s="47"/>
@@ -6137,25 +6177,24 @@
       <c r="X29" s="47"/>
       <c r="Y29" s="47"/>
       <c r="Z29" s="47"/>
-    </row>
-    <row r="30" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA29" s="47"/>
+    </row>
+    <row r="30" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>7</v>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>7</v>
@@ -6163,9 +6202,11 @@
       <c r="J30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="4"/>
+      <c r="K30" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="47"/>
+      <c r="M30" s="4"/>
       <c r="N30" s="47"/>
       <c r="O30" s="47"/>
       <c r="P30" s="47"/>
@@ -6179,29 +6220,31 @@
       <c r="X30" s="47"/>
       <c r="Y30" s="47"/>
       <c r="Z30" s="47"/>
-    </row>
-    <row r="31" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA30" s="47"/>
+    </row>
+    <row r="31" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="5">
-        <f>10/365</f>
-        <v>2.7397260273972601E-2</v>
-      </c>
-      <c r="E31" s="29">
+      <c r="D31" s="4">
+        <f>1/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="E31" s="5">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="F31" s="29">
         <v>0</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="5" t="s">
         <v>7</v>
       </c>
@@ -6209,41 +6252,47 @@
         <v>7</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="4">
-        <f>180/365</f>
-        <v>0.49315068493150682</v>
-      </c>
-      <c r="E32" s="4"/>
+        <f>1/52</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <f>26</f>
+        <v>26</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="47"/>
+      <c r="K32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" s="4"/>
       <c r="N32" s="47"/>
       <c r="O32" s="47"/>
       <c r="P32" s="47"/>
@@ -6257,13 +6306,14 @@
       <c r="X32" s="47"/>
       <c r="Y32" s="47"/>
       <c r="Z32" s="47"/>
-    </row>
-    <row r="33" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA32" s="47"/>
+    </row>
+    <row r="33" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>22</v>
@@ -6272,20 +6322,20 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="J33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="47"/>
+      <c r="K33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="4"/>
       <c r="N33" s="47"/>
       <c r="O33" s="47"/>
       <c r="P33" s="47"/>
@@ -6299,8 +6349,9 @@
       <c r="X33" s="47"/>
       <c r="Y33" s="47"/>
       <c r="Z33" s="47"/>
-    </row>
-    <row r="34" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA33" s="47"/>
+    </row>
+    <row r="34" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -6313,7 +6364,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="47"/>
+      <c r="M34" s="4"/>
       <c r="N34" s="47"/>
       <c r="O34" s="47"/>
       <c r="P34" s="47"/>
@@ -6327,37 +6378,38 @@
       <c r="X34" s="47"/>
       <c r="Y34" s="47"/>
       <c r="Z34" s="47"/>
-    </row>
-    <row r="35" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA34" s="47"/>
+    </row>
+    <row r="35" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
         <v>100</v>
       </c>
-      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="47"/>
+      <c r="K35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="4"/>
       <c r="N35" s="47"/>
       <c r="O35" s="47"/>
       <c r="P35" s="47"/>
@@ -6371,13 +6423,14 @@
       <c r="X35" s="47"/>
       <c r="Y35" s="47"/>
       <c r="Z35" s="47"/>
-    </row>
-    <row r="36" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA35" s="47"/>
+    </row>
+    <row r="36" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>22</v>
@@ -6386,20 +6439,20 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="47"/>
+      <c r="K36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="4"/>
       <c r="N36" s="47"/>
       <c r="O36" s="47"/>
       <c r="P36" s="47"/>
@@ -6413,37 +6466,38 @@
       <c r="X36" s="47"/>
       <c r="Y36" s="47"/>
       <c r="Z36" s="47"/>
-    </row>
-    <row r="37" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA36" s="47"/>
+    </row>
+    <row r="37" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
         <v>180</v>
       </c>
-      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="47"/>
+      <c r="K37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M37" s="4"/>
       <c r="N37" s="47"/>
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
@@ -6457,25 +6511,24 @@
       <c r="X37" s="47"/>
       <c r="Y37" s="47"/>
       <c r="Z37" s="47"/>
-    </row>
-    <row r="38" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA37" s="47"/>
+    </row>
+    <row r="38" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>7</v>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>7</v>
@@ -6483,9 +6536,11 @@
       <c r="J38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="4"/>
+      <c r="K38" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="47"/>
+      <c r="M38" s="4"/>
       <c r="N38" s="47"/>
       <c r="O38" s="47"/>
       <c r="P38" s="47"/>
@@ -6499,25 +6554,24 @@
       <c r="X38" s="47"/>
       <c r="Y38" s="47"/>
       <c r="Z38" s="47"/>
-    </row>
-    <row r="39" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA38" s="47"/>
+    </row>
+    <row r="39" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>7</v>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>7</v>
@@ -6525,9 +6579,11 @@
       <c r="J39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="4"/>
+      <c r="K39" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="47"/>
+      <c r="M39" s="4"/>
       <c r="N39" s="47"/>
       <c r="O39" s="47"/>
       <c r="P39" s="47"/>
@@ -6541,25 +6597,24 @@
       <c r="X39" s="47"/>
       <c r="Y39" s="47"/>
       <c r="Z39" s="47"/>
-    </row>
-    <row r="40" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA39" s="47"/>
+    </row>
+    <row r="40" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>7</v>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>7</v>
@@ -6567,9 +6622,11 @@
       <c r="J40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="4"/>
+      <c r="K40" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="47"/>
+      <c r="M40" s="4"/>
       <c r="N40" s="47"/>
       <c r="O40" s="47"/>
       <c r="P40" s="47"/>
@@ -6583,38 +6640,39 @@
       <c r="X40" s="47"/>
       <c r="Y40" s="47"/>
       <c r="Z40" s="47"/>
-    </row>
-    <row r="41" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA40" s="47"/>
+    </row>
+    <row r="41" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4"/>
+      <c r="E41" s="5">
         <f>10/365</f>
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="47"/>
+      <c r="K41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="47"/>
       <c r="O41" s="47"/>
       <c r="P41" s="47"/>
@@ -6628,81 +6686,82 @@
       <c r="X41" s="47"/>
       <c r="Y41" s="47"/>
       <c r="Z41" s="47"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41" s="47"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4"/>
+      <c r="E42" s="5">
         <v>1</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="I42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="5">
-        <v>7</v>
-      </c>
-      <c r="E43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5">
+        <v>7</v>
+      </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H43" s="5"/>
       <c r="I43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>7</v>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>7</v>
@@ -6710,8 +6769,10 @@
       <c r="J44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="47"/>
+      <c r="K44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="4"/>
       <c r="N44" s="47"/>
       <c r="O44" s="47"/>
       <c r="P44" s="47"/>
@@ -6725,37 +6786,38 @@
       <c r="X44" s="47"/>
       <c r="Y44" s="47"/>
       <c r="Z44" s="47"/>
-    </row>
-    <row r="45" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA44" s="47"/>
+    </row>
+    <row r="45" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="4">
+        <v>41</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4">
         <v>0.01</v>
       </c>
-      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H45" s="4"/>
       <c r="I45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="47"/>
+      <c r="K45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="4"/>
       <c r="N45" s="47"/>
       <c r="O45" s="47"/>
       <c r="P45" s="47"/>
@@ -6769,37 +6831,38 @@
       <c r="X45" s="47"/>
       <c r="Y45" s="47"/>
       <c r="Z45" s="47"/>
-    </row>
-    <row r="46" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA45" s="47"/>
+    </row>
+    <row r="46" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="4">
+        <v>41</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
         <v>0.05</v>
       </c>
-      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H46" s="4"/>
       <c r="I46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="47"/>
+      <c r="K46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="4"/>
       <c r="N46" s="47"/>
       <c r="O46" s="47"/>
       <c r="P46" s="47"/>
@@ -6813,37 +6876,38 @@
       <c r="X46" s="47"/>
       <c r="Y46" s="47"/>
       <c r="Z46" s="47"/>
-    </row>
-    <row r="47" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA46" s="47"/>
+    </row>
+    <row r="47" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="4">
+        <v>41</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
         <v>0.98</v>
       </c>
-      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H47" s="4"/>
       <c r="I47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="47"/>
+      <c r="K47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="47"/>
       <c r="O47" s="47"/>
       <c r="P47" s="47"/>
@@ -6857,37 +6921,38 @@
       <c r="X47" s="47"/>
       <c r="Y47" s="47"/>
       <c r="Z47" s="47"/>
-    </row>
-    <row r="48" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA47" s="47"/>
+    </row>
+    <row r="48" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="4">
+        <v>41</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
         <v>0.98</v>
       </c>
-      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H48" s="4"/>
       <c r="I48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="47"/>
+      <c r="K48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" s="4"/>
       <c r="N48" s="47"/>
       <c r="O48" s="47"/>
       <c r="P48" s="47"/>
@@ -6901,37 +6966,38 @@
       <c r="X48" s="47"/>
       <c r="Y48" s="47"/>
       <c r="Z48" s="47"/>
-    </row>
-    <row r="49" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA48" s="47"/>
+    </row>
+    <row r="49" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="4">
+        <v>41</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
         <v>0.9</v>
       </c>
-      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="47"/>
+      <c r="K49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="47"/>
       <c r="O49" s="47"/>
       <c r="P49" s="47"/>
@@ -6945,25 +7011,24 @@
       <c r="X49" s="47"/>
       <c r="Y49" s="47"/>
       <c r="Z49" s="47"/>
-    </row>
-    <row r="50" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA49" s="47"/>
+    </row>
+    <row r="50" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>7</v>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>7</v>
@@ -6971,9 +7036,11 @@
       <c r="J50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="4"/>
+      <c r="K50" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="47"/>
+      <c r="M50" s="4"/>
       <c r="N50" s="47"/>
       <c r="O50" s="47"/>
       <c r="P50" s="47"/>
@@ -6987,25 +7054,24 @@
       <c r="X50" s="47"/>
       <c r="Y50" s="47"/>
       <c r="Z50" s="47"/>
-    </row>
-    <row r="51" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA50" s="47"/>
+    </row>
+    <row r="51" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>7</v>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>7</v>
@@ -7013,9 +7079,11 @@
       <c r="J51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K51" s="4"/>
+      <c r="K51" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="47"/>
+      <c r="M51" s="4"/>
       <c r="N51" s="47"/>
       <c r="O51" s="47"/>
       <c r="P51" s="47"/>
@@ -7029,25 +7097,24 @@
       <c r="X51" s="47"/>
       <c r="Y51" s="47"/>
       <c r="Z51" s="47"/>
-    </row>
-    <row r="52" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA51" s="47"/>
+    </row>
+    <row r="52" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>7</v>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>7</v>
@@ -7055,9 +7122,11 @@
       <c r="J52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="4"/>
+      <c r="K52" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="47"/>
+      <c r="M52" s="4"/>
       <c r="N52" s="47"/>
       <c r="O52" s="47"/>
       <c r="P52" s="47"/>
@@ -7071,25 +7140,24 @@
       <c r="X52" s="47"/>
       <c r="Y52" s="47"/>
       <c r="Z52" s="47"/>
-    </row>
-    <row r="53" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA52" s="47"/>
+    </row>
+    <row r="53" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>7</v>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>7</v>
@@ -7097,9 +7165,11 @@
       <c r="J53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K53" s="4"/>
+      <c r="K53" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="47"/>
+      <c r="M53" s="4"/>
       <c r="N53" s="47"/>
       <c r="O53" s="47"/>
       <c r="P53" s="47"/>
@@ -7113,25 +7183,24 @@
       <c r="X53" s="47"/>
       <c r="Y53" s="47"/>
       <c r="Z53" s="47"/>
-    </row>
-    <row r="54" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA53" s="47"/>
+    </row>
+    <row r="54" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>7</v>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>7</v>
@@ -7139,9 +7208,11 @@
       <c r="J54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="4"/>
+      <c r="K54" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="47"/>
+      <c r="M54" s="4"/>
       <c r="N54" s="47"/>
       <c r="O54" s="47"/>
       <c r="P54" s="47"/>
@@ -7155,37 +7226,38 @@
       <c r="X54" s="47"/>
       <c r="Y54" s="47"/>
       <c r="Z54" s="47"/>
-    </row>
-    <row r="55" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA54" s="47"/>
+    </row>
+    <row r="55" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="4">
+        <v>41</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4">
         <v>0</v>
       </c>
-      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H55" s="4"/>
       <c r="I55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="47"/>
+      <c r="K55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M55" s="4"/>
       <c r="N55" s="47"/>
       <c r="O55" s="47"/>
       <c r="P55" s="47"/>
@@ -7199,25 +7271,24 @@
       <c r="X55" s="47"/>
       <c r="Y55" s="47"/>
       <c r="Z55" s="47"/>
-    </row>
-    <row r="56" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA55" s="47"/>
+    </row>
+    <row r="56" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>7</v>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>7</v>
@@ -7225,9 +7296,11 @@
       <c r="J56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="4"/>
+      <c r="K56" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="47"/>
+      <c r="M56" s="4"/>
       <c r="N56" s="47"/>
       <c r="O56" s="47"/>
       <c r="P56" s="47"/>
@@ -7241,13 +7314,14 @@
       <c r="X56" s="47"/>
       <c r="Y56" s="47"/>
       <c r="Z56" s="47"/>
-    </row>
-    <row r="57" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA56" s="47"/>
+    </row>
+    <row r="57" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>23</v>
@@ -7256,20 +7330,20 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H57" s="4"/>
       <c r="I57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="47"/>
+      <c r="K57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="47"/>
       <c r="O57" s="47"/>
       <c r="P57" s="47"/>
@@ -7283,13 +7357,14 @@
       <c r="X57" s="47"/>
       <c r="Y57" s="47"/>
       <c r="Z57" s="47"/>
-    </row>
-    <row r="58" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA57" s="47"/>
+    </row>
+    <row r="58" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>23</v>
@@ -7298,20 +7373,20 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="47"/>
+      <c r="K58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" s="4"/>
       <c r="N58" s="47"/>
       <c r="O58" s="47"/>
       <c r="P58" s="47"/>
@@ -7325,13 +7400,14 @@
       <c r="X58" s="47"/>
       <c r="Y58" s="47"/>
       <c r="Z58" s="47"/>
-    </row>
-    <row r="59" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA58" s="47"/>
+    </row>
+    <row r="59" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>23</v>
@@ -7340,20 +7416,20 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H59" s="4"/>
       <c r="I59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K59" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="47"/>
+      <c r="K59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" s="4"/>
       <c r="N59" s="47"/>
       <c r="O59" s="47"/>
       <c r="P59" s="47"/>
@@ -7367,13 +7443,14 @@
       <c r="X59" s="47"/>
       <c r="Y59" s="47"/>
       <c r="Z59" s="47"/>
-    </row>
-    <row r="60" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA59" s="47"/>
+    </row>
+    <row r="60" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
@@ -7382,20 +7459,20 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H60" s="4"/>
       <c r="I60" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="47"/>
+      <c r="K60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" s="4"/>
       <c r="N60" s="47"/>
       <c r="O60" s="47"/>
       <c r="P60" s="47"/>
@@ -7409,13 +7486,14 @@
       <c r="X60" s="47"/>
       <c r="Y60" s="47"/>
       <c r="Z60" s="47"/>
-    </row>
-    <row r="61" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA60" s="47"/>
+    </row>
+    <row r="61" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>23</v>
@@ -7424,20 +7502,20 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H61" s="4"/>
       <c r="I61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="47"/>
+      <c r="K61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" s="4"/>
       <c r="N61" s="47"/>
       <c r="O61" s="47"/>
       <c r="P61" s="47"/>
@@ -7451,13 +7529,14 @@
       <c r="X61" s="47"/>
       <c r="Y61" s="47"/>
       <c r="Z61" s="47"/>
-    </row>
-    <row r="62" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA61" s="47"/>
+    </row>
+    <row r="62" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>22</v>
@@ -7466,20 +7545,20 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="4"/>
+      <c r="I62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="J62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K62" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="47"/>
+      <c r="K62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="4"/>
       <c r="N62" s="47"/>
       <c r="O62" s="47"/>
       <c r="P62" s="47"/>
@@ -7493,37 +7572,38 @@
       <c r="X62" s="47"/>
       <c r="Y62" s="47"/>
       <c r="Z62" s="47"/>
-    </row>
-    <row r="63" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA62" s="47"/>
+    </row>
+    <row r="63" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="4">
+        <v>41</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4">
         <v>0.95</v>
       </c>
-      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H63" s="4"/>
       <c r="I63" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="47"/>
+      <c r="K63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M63" s="4"/>
       <c r="N63" s="47"/>
       <c r="O63" s="47"/>
       <c r="P63" s="47"/>
@@ -7537,25 +7617,24 @@
       <c r="X63" s="47"/>
       <c r="Y63" s="47"/>
       <c r="Z63" s="47"/>
-    </row>
-    <row r="64" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA63" s="47"/>
+    </row>
+    <row r="64" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>7</v>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>7</v>
@@ -7563,9 +7642,11 @@
       <c r="J64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="4"/>
+      <c r="K64" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="47"/>
+      <c r="M64" s="4"/>
       <c r="N64" s="47"/>
       <c r="O64" s="47"/>
       <c r="P64" s="47"/>
@@ -7579,37 +7660,38 @@
       <c r="X64" s="47"/>
       <c r="Y64" s="47"/>
       <c r="Z64" s="47"/>
-    </row>
-    <row r="65" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA64" s="47"/>
+    </row>
+    <row r="65" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="4">
+        <v>41</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
         <v>0</v>
       </c>
-      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H65" s="4"/>
       <c r="I65" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="47"/>
+      <c r="K65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="47"/>
       <c r="O65" s="47"/>
       <c r="P65" s="47"/>
@@ -7623,38 +7705,42 @@
       <c r="X65" s="47"/>
       <c r="Y65" s="47"/>
       <c r="Z65" s="47"/>
-    </row>
-    <row r="66" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA65" s="47"/>
+    </row>
+    <row r="66" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="4">
-        <f>14/265</f>
-        <v>5.2830188679245285E-2</v>
-      </c>
-      <c r="E66" s="4"/>
+        <f>1/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="E66" s="4">
+        <f>14</f>
+        <v>14</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H66" s="4"/>
       <c r="I66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="47"/>
+      <c r="K66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M66" s="4"/>
       <c r="N66" s="47"/>
       <c r="O66" s="47"/>
       <c r="P66" s="47"/>
@@ -7668,26 +7754,25 @@
       <c r="X66" s="47"/>
       <c r="Y66" s="47"/>
       <c r="Z66" s="47"/>
-    </row>
-    <row r="67" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA66" s="47"/>
+    </row>
+    <row r="67" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28">
+      <c r="D67" s="4"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28">
         <v>0</v>
       </c>
-      <c r="F67" s="28"/>
       <c r="G67" s="28"/>
-      <c r="H67" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="H67" s="28"/>
       <c r="I67" s="28" t="s">
         <v>7</v>
       </c>
@@ -7695,29 +7780,33 @@
         <v>7</v>
       </c>
       <c r="K67" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L67" s="28"/>
-    </row>
-    <row r="68" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L67" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M67" s="28"/>
+    </row>
+    <row r="68" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5">
+      <c r="D68" s="4">
+        <f>1/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
         <v>0</v>
       </c>
-      <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H68" s="5"/>
       <c r="I68" s="5" t="s">
         <v>7</v>
       </c>
@@ -7725,10 +7814,12 @@
         <v>7</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="47"/>
+        <v>7</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M68" s="4"/>
       <c r="N68" s="47"/>
       <c r="O68" s="47"/>
       <c r="P68" s="47"/>
@@ -7742,24 +7833,26 @@
       <c r="X68" s="47"/>
       <c r="Y68" s="47"/>
       <c r="Z68" s="47"/>
-    </row>
-    <row r="69" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA68" s="47"/>
+    </row>
+    <row r="69" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="4">
+        <f t="shared" ref="D69:D70" si="0">1/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="5" t="s">
         <v>7</v>
       </c>
@@ -7767,10 +7860,12 @@
         <v>7</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="47"/>
+        <v>7</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M69" s="4"/>
       <c r="N69" s="47"/>
       <c r="O69" s="47"/>
       <c r="P69" s="47"/>
@@ -7784,24 +7879,26 @@
       <c r="X69" s="47"/>
       <c r="Y69" s="47"/>
       <c r="Z69" s="47"/>
-    </row>
-    <row r="70" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA69" s="47"/>
+    </row>
+    <row r="70" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="5" t="s">
         <v>7</v>
       </c>
@@ -7809,10 +7906,12 @@
         <v>7</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L70" s="4"/>
-      <c r="M70" s="47"/>
+        <v>7</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" s="4"/>
       <c r="N70" s="47"/>
       <c r="O70" s="47"/>
       <c r="P70" s="47"/>
@@ -7826,24 +7925,23 @@
       <c r="X70" s="47"/>
       <c r="Y70" s="47"/>
       <c r="Z70" s="47"/>
-    </row>
-    <row r="71" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA70" s="47"/>
+    </row>
+    <row r="71" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H71" s="4"/>
       <c r="I71" s="5" t="s">
         <v>7</v>
       </c>
@@ -7851,10 +7949,12 @@
         <v>7</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="47"/>
+        <v>7</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M71" s="4"/>
       <c r="N71" s="47"/>
       <c r="O71" s="47"/>
       <c r="P71" s="47"/>
@@ -7868,20 +7968,19 @@
       <c r="X71" s="47"/>
       <c r="Y71" s="47"/>
       <c r="Z71" s="47"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA71" s="47"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D72" s="4"/>
       <c r="I72" s="5" t="s">
         <v>7</v>
       </c>
@@ -7889,14 +7988,17 @@
         <v>7</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -7905,26 +8007,25 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-    </row>
-    <row r="74" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5">
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
         <v>0</v>
       </c>
-      <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H74" s="5"/>
       <c r="I74" s="5" t="s">
         <v>7</v>
       </c>
@@ -7932,29 +8033,30 @@
         <v>7</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L74" s="5"/>
-    </row>
-    <row r="75" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5">
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
         <v>0</v>
       </c>
-      <c r="F75" s="5"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H75" s="5"/>
       <c r="I75" s="5" t="s">
         <v>7</v>
       </c>
@@ -7962,30 +8064,31 @@
         <v>7</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L75" s="5"/>
-    </row>
-    <row r="76" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5">
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
         <v>0</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
-        <v>7</v>
+        <v>292</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>7</v>
@@ -7993,10 +8096,13 @@
       <c r="J76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -8009,20 +8115,21 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-    </row>
-    <row r="78" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="5"/>
+    </row>
+    <row r="78" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
-      <c r="D86"/>
+      <c r="D86" s="23"/>
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86"/>
@@ -8031,12 +8138,13 @@
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
-      <c r="D87"/>
+      <c r="D87" s="23"/>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
@@ -8045,12 +8153,13 @@
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
-      <c r="D88"/>
+      <c r="D88" s="23"/>
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88"/>
@@ -8059,14 +8168,15 @@
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
-    </row>
-    <row r="89" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88"/>
+    </row>
+    <row r="89" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
-      <c r="D91"/>
+      <c r="D91" s="23"/>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
@@ -8075,14 +8185,15 @@
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91"/>
-    </row>
-    <row r="92" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91"/>
+    </row>
+    <row r="92" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
-      <c r="D94"/>
+      <c r="D94" s="23"/>
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94"/>
@@ -8091,14 +8202,15 @@
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
-    </row>
-    <row r="95" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94"/>
+    </row>
+    <row r="95" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
-      <c r="D97"/>
+      <c r="D97" s="23"/>
       <c r="E97"/>
       <c r="F97"/>
       <c r="G97"/>
@@ -8107,14 +8219,15 @@
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
-    </row>
-    <row r="98" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97"/>
+    </row>
+    <row r="98" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
-      <c r="D100"/>
+      <c r="D100" s="23"/>
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100"/>
@@ -8123,12 +8236,13 @@
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
-      <c r="D101"/>
+      <c r="D101" s="23"/>
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101"/>
@@ -8137,12 +8251,13 @@
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
-      <c r="D102"/>
+      <c r="D102" s="23"/>
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102"/>
@@ -8151,12 +8266,13 @@
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
-      <c r="D103"/>
+      <c r="D103" s="23"/>
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103"/>
@@ -8165,14 +8281,15 @@
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103"/>
-    </row>
-    <row r="104" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103"/>
+    </row>
+    <row r="104" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
-      <c r="D106"/>
+      <c r="D106" s="23"/>
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106"/>
@@ -8181,16 +8298,17 @@
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106"/>
-    </row>
-    <row r="107" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106"/>
+    </row>
+    <row r="107" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
-      <c r="D111"/>
+      <c r="D111" s="23"/>
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111"/>
@@ -8199,12 +8317,13 @@
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
-      <c r="D112"/>
+      <c r="D112" s="23"/>
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112"/>
@@ -8213,14 +8332,15 @@
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
-    </row>
-    <row r="113" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112"/>
+    </row>
+    <row r="113" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
-      <c r="D115"/>
+      <c r="D115" s="23"/>
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115"/>
@@ -8229,12 +8349,13 @@
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
-      <c r="D116"/>
+      <c r="D116" s="23"/>
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116"/>
@@ -8243,12 +8364,13 @@
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
-      <c r="D117"/>
+      <c r="D117" s="23"/>
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117"/>
@@ -8257,12 +8379,13 @@
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
-      <c r="D118"/>
+      <c r="D118" s="23"/>
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118"/>
@@ -8271,12 +8394,13 @@
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
-      <c r="D119"/>
+      <c r="D119" s="23"/>
       <c r="E119"/>
       <c r="F119"/>
       <c r="G119"/>
@@ -8285,12 +8409,13 @@
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
-      <c r="D120"/>
+      <c r="D120" s="23"/>
       <c r="E120"/>
       <c r="F120"/>
       <c r="G120"/>
@@ -8299,12 +8424,13 @@
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
-      <c r="D121"/>
+      <c r="D121" s="23"/>
       <c r="E121"/>
       <c r="F121"/>
       <c r="G121"/>
@@ -8313,13 +8439,14 @@
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121"/>
+      <c r="M121"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J4 H35:J72 H74:J76 H25:J33 H6:J23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K4 I35:K72 I74:K76 I25:K33 I6:K23">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 C74:C76 C25:C72 C6:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74:C76 C25:C72 C2:C4 C6:C23">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8388,10 +8515,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -8409,13 +8536,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -8433,13 +8560,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -8460,10 +8587,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -8474,7 +8601,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
@@ -8502,7 +8629,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>7</v>
@@ -8510,13 +8637,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -8599,10 +8726,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="32">
         <v>1</v>
@@ -8698,127 +8825,127 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/atomica/library/malaria_framework.xlsx
+++ b/atomica/library/malaria_framework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31E0FBD-E4AE-42F8-9A76-5B3110476765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C5E764-B8EB-46E7-9B8C-1BF9CB69EA88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5055" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="4935" windowWidth="29895" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -4867,7 +4867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -7138,11 +7138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R182"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8134,9 +8134,6 @@
       <c r="C27" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="46">
-        <v>1</v>
-      </c>
       <c r="E27" s="43">
         <v>0</v>
       </c>
@@ -8530,9 +8527,6 @@
       </c>
       <c r="C35" s="43" t="s">
         <v>33</v>
-      </c>
-      <c r="D35" s="46">
-        <v>1</v>
       </c>
       <c r="E35" s="43">
         <v>0</v>
@@ -13845,7 +13839,7 @@
       <formula>NOT(ISERROR(SEARCH("y",J164)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K131:M134 K16:M16 K84:M129 K11:M13 K18:M18 K20:M22 K69:M82 K24:M25 K27:M66" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
